--- a/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
+++ b/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS\Desktop\중급개발자교재편집\RPA_중급개발자과정_실습파일\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_Invoice 추출 및 정리_통합본\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020A7B56-2485-4F85-B344-A2734AFAD0A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1382965A-487F-4F52-A56B-895C50975BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-25905" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,138 +229,6 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C:\RPA\KS_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연도별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보고서작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\Template</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C:\RPA\KS_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연도별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보고서작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\SourceData</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C:\RPA\KS_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연도별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보고서작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\Result</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,6 +547,264 @@
   </si>
   <si>
     <t>Window Credential Manager Email_Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\Template</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\SourceData</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\Result</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File extension(PDF)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,13 +851,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
@@ -753,6 +872,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -784,32 +910,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1126,20 +1246,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B78B8AA-D076-46A8-B429-FDCCC375A88F}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1149,67 +1269,28 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,137 +1301,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="3" width="40.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="14.45" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="16.5">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,13 +1378,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
@@ -1375,383 +1392,93 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1762,13 +1489,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.75" style="1" customWidth="1"/>
@@ -1776,7 +1503,7 @@
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1786,141 +1513,63 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="14.45" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="49.5">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="B13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
+++ b/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_Invoice 추출 및 정리_통합본\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1382965A-487F-4F52-A56B-895C50975BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0BDB0-190F-4BC5-AC83-C27FF23E5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25905" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +805,28 @@
   </si>
   <si>
     <t>File extension(PDF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VendorSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/vendors/search</t>
+  </si>
+  <si>
+    <t>VendorSearch_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/invoices/add</t>
+  </si>
+  <si>
+    <t>Add_invoice_detail_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddInvoice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1301,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1369,6 +1391,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1380,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B35" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
+++ b/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_Invoice 추출 및 정리_통합본\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alphaco5_teamproejct2\KS_Invoice 추출 및 정리_통합본\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C0BDB0-190F-4BC5-AC83-C27FF23E5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53A86F-9E2B-407D-864D-5436ACD1F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -827,6 +827,95 @@
   </si>
   <si>
     <t>AddInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO_Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\Template\ISO_MasterTable.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO_Code_Exel_Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -834,7 +923,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,6 +990,13 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1323,16 +1419,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -1411,6 +1508,17 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
+++ b/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alphaco5_teamproejct2\KS_Invoice 추출 및 정리_통합본\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_Invoice 추출 및 정리_통합본\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53A86F-9E2B-407D-864D-5436ACD1F42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0170D4-CF43-4B46-BC07-D6F12DBCB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-21690" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>제목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,7 +836,6 @@
   </si>
   <si>
     <t>ISO_Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -916,6 +920,84 @@
   </si>
   <si>
     <t>ISO_Code_Exel_Path</t>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_yy.MM.dd_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당자이름</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_Tracker_yy.MM.dd_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>담당자이름</t>
+    </r>
+  </si>
+  <si>
+    <t>탬플릿 파일1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탬플릿 파일2 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp1_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2_sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2_sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice-Number</t>
+  </si>
+  <si>
+    <t>Invoices_Total</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>탬1 시트1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탬2 시트1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탬2 시트2 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp1_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +1005,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +1081,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1028,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,6 +1145,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,15 +1523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="40.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -1530,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B35" sqref="B34:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1631,6 +1732,64 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
+++ b/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_Invoice 추출 및 정리_통합본\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alphaco5_teamproejct2\KS_Invoice 추출 및 정리_통합본\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0170D4-CF43-4B46-BC07-D6F12DBCB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03299F9B-FE8B-441B-BA7D-51BC708FE5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21690" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -39,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>System1_URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,14 +226,6 @@
   </si>
   <si>
     <t>보내는사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpakorea@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -303,18 +283,390 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[RPA_TypeA]KS_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+    <t>Report-{TaxID}-{Year}-{Month}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yearly-Report-{Year}-{TaxID}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File extension(Excel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File extension(CSV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work-items</t>
+  </si>
+  <si>
+    <t>work-items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System1 Navigate To Work Items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window Credential Manager System1_Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window Credential Manager Email_Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\Template</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\SourceData</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\Result</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File extension(PDF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VendorSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/vendors/search</t>
+  </si>
+  <si>
+    <t>VendorSearch_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/invoices/add</t>
+  </si>
+  <si>
+    <t>Add_invoice_detail_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO_Code</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>연도별</t>
+      <t>추출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정리</t>
     </r>
     <r>
       <rPr>
@@ -329,68 +681,173 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보고서작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+      <t>통합본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>\Template\ISO_MasterTable.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO_Code_Exel_Path</t>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_yy.MM.dd_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>결과보고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+      <t>담당자이름</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Invoice_Tracker_yy.MM.dd_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+      <t>담당자이름</t>
+    </r>
+  </si>
+  <si>
+    <t>탬플릿 파일1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탬플릿 파일2 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp1_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2_sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2_sheet2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice-Number</t>
+  </si>
+  <si>
+    <t>Invoices_Total</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>탬1 시트1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탬2 시트1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탬2 시트2 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp1_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp2_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_NoExist_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)Vendor Tax ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요망</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_NoExist_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>안녕하세요</t>
@@ -402,56 +859,37 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>.
-[RPA_TypeA]KS_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연도별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보고서작성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과물을</t>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영담당자님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Vendor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시스템</t>
     </r>
     <r>
       <rPr>
@@ -467,10 +905,125 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보내드립니다</t>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색되지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tax ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발견되었습니다</t>
     </r>
     <r>
       <rPr>
@@ -487,7 +1040,103 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첨부하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냅니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부탁드립니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>감사합니다</t>
@@ -504,88 +1153,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Report-{TaxID}-{Year}-{Month}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yearly-Report-{Year}-{TaxID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File extension(Excel)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File extension(CSV)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work-items</t>
-  </si>
-  <si>
-    <t>work-items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System1 Navigate To Work Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window Credential Manager System1_Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window Credential Manager Email_Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추출</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+    <t>mkh0813@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilicat0813@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTP_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smtp.naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTP_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_NoExist_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body_NoExist_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DM Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)Vendor Tax ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DM Sans"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요망</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>운영담당자님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Vendor PDF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
     </r>
     <r>
       <rPr>
@@ -600,55 +1292,31 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통합본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\Template</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추출</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,
+Tax ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
     </r>
     <r>
       <rPr>
@@ -663,11 +1331,11 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발견되지</t>
     </r>
     <r>
       <rPr>
@@ -682,55 +1350,31 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통합본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\SourceData</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추출</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않았습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
     </r>
     <r>
       <rPr>
@@ -745,11 +1389,11 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첨부하여</t>
     </r>
     <r>
       <rPr>
@@ -764,92 +1408,30 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통합본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\Result</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File extension(PDF)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VendorSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/vendors/search</t>
-  </si>
-  <si>
-    <t>VendorSearch_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/invoices/add</t>
-  </si>
-  <si>
-    <t>Add_invoice_detail_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISO_Code</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C:\RPA\KS_Invoice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추출</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보냅니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
     </r>
     <r>
       <rPr>
@@ -864,140 +1446,89 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통합본</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\Template\ISO_MasterTable.xlsx</t>
-    </r>
-  </si>
-  <si>
-    <t>ISO_Code_Exel_Path</t>
-  </si>
-  <si>
-    <r>
-      <t>Invoice_yy.MM.dd_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>담당자이름</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Invoice_Tracker_yy.MM.dd_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>담당자이름</t>
-    </r>
-  </si>
-  <si>
-    <t>탬플릿 파일1 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탬플릿 파일2 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp1_sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp2_sheet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp2_sheet2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice-Number</t>
-  </si>
-  <si>
-    <t>Invoices_Total</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>탬1 시트1 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탬2 시트1 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탬2 시트2 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp1_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp2_name</t>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부탁드립니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일제목_시스탬 내 Tax ID 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일제목_파일 내 Tax ID 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일본문_파일 내 Tax ID 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일본문_시스템 내 Tax ID 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">smtp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">smtp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포트</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,7 +1536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,19 +1586,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1095,6 +1613,33 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DM Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1119,12 +1664,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,24 +1685,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1469,7 +2021,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1481,35 +2033,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1536,90 +2088,90 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.45" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1647,149 +2199,149 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="8"/>
+      <c r="C14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1800,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1816,71 +2368,118 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="49.5">
+        <v>78</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="75">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75">
-      <c r="B13" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="82.5">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1">
+        <v>587</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5C1A7561-903B-4AFC-BB7D-D0DC467ACF68}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{8901CBC3-AF7A-4D72-8DA9-195CB62D665D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
+++ b/KS_Invoice 추출 및 정리_통합본/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alphaco5_teamproejct2\KS_Invoice 추출 및 정리_통합본\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_Invoice 추출 및 정리_통합본\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03299F9B-FE8B-441B-BA7D-51BC708FE5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E757AB-A59C-4D33-826E-5A051D6D4D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1529,6 +1529,14 @@
       </rPr>
       <t>포트</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vendor with TaxID (invoice-number) not present in system. Email sent to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2185,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2341,6 +2349,12 @@
       </c>
     </row>
     <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C14" s="6"/>
     </row>
   </sheetData>
@@ -2354,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
